--- a/fig2/Supplements2.xlsx
+++ b/fig2/Supplements2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QTOF\MethodPaper\fig2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5E113C-0865-4140-B72E-9F6C7B2C3C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3CD1FD-E358-43C3-B894-A9A7F40C1C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analytical_Standards" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,10 @@
     <sheet name="Literature_MassShifts_Database" sheetId="25" r:id="rId7"/>
     <sheet name="Sheet3" sheetId="9" r:id="rId8"/>
     <sheet name="G3P" sheetId="23" r:id="rId9"/>
-    <sheet name="DAP" sheetId="24" r:id="rId10"/>
-    <sheet name="Results_hmdb" sheetId="20" r:id="rId11"/>
-    <sheet name="Fraction_Groups" sheetId="21" r:id="rId12"/>
+    <sheet name="ADP" sheetId="24" r:id="rId10"/>
+    <sheet name="Dap" sheetId="27" r:id="rId11"/>
+    <sheet name="Results_hmdb" sheetId="20" r:id="rId12"/>
+    <sheet name="Fraction_Groups" sheetId="21" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6923" uniqueCount="2000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6923" uniqueCount="2004">
   <si>
     <t>#</t>
   </si>
@@ -6045,6 +6046,18 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>Amino Acid</t>
+  </si>
+  <si>
+    <t>Glycolysis/sugar-phosphates</t>
+  </si>
+  <si>
+    <t>PPP</t>
+  </si>
+  <si>
+    <t>TCA</t>
   </si>
 </sst>
 </file>
@@ -7369,8 +7382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V162"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K161"/>
+    <sheetView topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13998,42 +14011,37 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06A1883-067D-4CE8-827B-EDF5553D5120}">
-  <dimension ref="A2:A7"/>
+  <dimension ref="A2:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>191.102</v>
+        <v>426.02179999999998</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>192.10499999999999</v>
+        <v>427.02510000000001</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>213.08500000000001</v>
+        <v>448.00380000000001</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>229.05799999999999</v>
+        <v>463.97829999999999</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>235.066</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>333.04300000000001</v>
+        <v>545.98</v>
       </c>
     </row>
   </sheetData>
@@ -14042,6 +14050,51 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CEEAA3-5558-43DF-BD85-994F4016A0DF}">
+  <dimension ref="A2:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>191.10220000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>192.10499999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>235.06569999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>333.04320000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>213.08500000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>229.05770000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D2C999-E07A-4065-9835-70E4A7CDB622}">
   <dimension ref="A1:J384"/>
   <sheetViews>
@@ -26349,7 +26402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944F4D74-2A0E-4E32-B619-EBD62A68137F}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -26469,12 +26522,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F335CE5-98B2-4E70-9F20-A0A7ACB492F7}">
   <dimension ref="A1:D161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F111" sqref="F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="78.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -26503,7 +26557,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>812</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -26517,7 +26571,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>812</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -26531,7 +26585,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>812</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -26545,7 +26599,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>812</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -26559,7 +26613,7 @@
         <v>33</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>812</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -26573,7 +26627,7 @@
         <v>39</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>812</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -26587,7 +26641,7 @@
         <v>45</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>812</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -26601,7 +26655,7 @@
         <v>51</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>812</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -26615,7 +26669,7 @@
         <v>57</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>812</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -26629,7 +26683,7 @@
         <v>63</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>812</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -26643,7 +26697,7 @@
         <v>68</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>812</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -26657,7 +26711,7 @@
         <v>73</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>812</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -26671,7 +26725,7 @@
         <v>78</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>812</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -26685,7 +26739,7 @@
         <v>83</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>812</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -26699,7 +26753,7 @@
         <v>88</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>812</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -26713,7 +26767,7 @@
         <v>93</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>812</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -26727,7 +26781,7 @@
         <v>98</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>812</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -26741,7 +26795,7 @@
         <v>103</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>812</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -26755,7 +26809,7 @@
         <v>108</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>812</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -26769,7 +26823,7 @@
         <v>113</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>812</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -26783,7 +26837,7 @@
         <v>118</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>812</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -26797,7 +26851,7 @@
         <v>123</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>812</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -26811,7 +26865,7 @@
         <v>128</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>812</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -26825,7 +26879,7 @@
         <v>133</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>812</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -27539,7 +27593,7 @@
         <v>412</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>814</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -27553,7 +27607,7 @@
         <v>417</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>814</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -27567,7 +27621,7 @@
         <v>422</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>814</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -27581,7 +27635,7 @@
         <v>427</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>814</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -27595,7 +27649,7 @@
         <v>432</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>814</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -27609,7 +27663,7 @@
         <v>438</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>814</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -27623,7 +27677,7 @@
         <v>444</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>814</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -27637,7 +27691,7 @@
         <v>449</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>814</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -27651,7 +27705,7 @@
         <v>454</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>814</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -27665,7 +27719,7 @@
         <v>459</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>814</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -27679,7 +27733,7 @@
         <v>464</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>814</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -27693,7 +27747,7 @@
         <v>469</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>814</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -27707,7 +27761,7 @@
         <v>475</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>814</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -27721,7 +27775,7 @@
         <v>480</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>814</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -27735,7 +27789,7 @@
         <v>485</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>814</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -27749,7 +27803,7 @@
         <v>490</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>814</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -27763,7 +27817,7 @@
         <v>495</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>814</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -27777,7 +27831,7 @@
         <v>499</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>814</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -27791,7 +27845,7 @@
         <v>504</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>814</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -27805,7 +27859,7 @@
         <v>509</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>814</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -27819,7 +27873,7 @@
         <v>514</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>814</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -27833,7 +27887,7 @@
         <v>520</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>814</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -27847,7 +27901,7 @@
         <v>525</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>814</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -27861,7 +27915,7 @@
         <v>530</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>814</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -27875,7 +27929,7 @@
         <v>536</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>814</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -27889,7 +27943,7 @@
         <v>542</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>814</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -27903,7 +27957,7 @@
         <v>548</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>814</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -27917,7 +27971,7 @@
         <v>554</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>814</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -27931,7 +27985,7 @@
         <v>560</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>814</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -28070,8 +28124,8 @@
       <c r="C114" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="D114" s="9" t="s">
-        <v>816</v>
+      <c r="D114" s="5" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -28084,8 +28138,8 @@
       <c r="C115" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="D115" s="9" t="s">
-        <v>816</v>
+      <c r="D115" s="5" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -28169,7 +28223,7 @@
         <v>651</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>814</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -28253,7 +28307,7 @@
         <v>683</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>812</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">

--- a/fig2/Supplements2.xlsx
+++ b/fig2/Supplements2.xlsx
@@ -8,24 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QTOF\MethodPaper\fig2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3CD1FD-E358-43C3-B894-A9A7F40C1C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7317D2-E48D-4BEE-8A06-D217801DF0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analytical_Standards" sheetId="1" r:id="rId1"/>
-    <sheet name="Chemical_Classes" sheetId="26" r:id="rId2"/>
-    <sheet name="Database" sheetId="17" r:id="rId3"/>
-    <sheet name="Standard_pos_neg_mass" sheetId="14" r:id="rId4"/>
-    <sheet name="Literature_MassShifts" sheetId="22" r:id="rId5"/>
-    <sheet name="Literature_MassShifts_truncated" sheetId="16" r:id="rId6"/>
-    <sheet name="Literature_MassShifts_Database" sheetId="25" r:id="rId7"/>
-    <sheet name="Sheet3" sheetId="9" r:id="rId8"/>
-    <sheet name="G3P" sheetId="23" r:id="rId9"/>
-    <sheet name="ADP" sheetId="24" r:id="rId10"/>
-    <sheet name="Dap" sheetId="27" r:id="rId11"/>
-    <sheet name="Results_hmdb" sheetId="20" r:id="rId12"/>
-    <sheet name="Fraction_Groups" sheetId="21" r:id="rId13"/>
+    <sheet name="Database" sheetId="17" r:id="rId2"/>
+    <sheet name="Standard_pos_neg_mass" sheetId="14" r:id="rId3"/>
+    <sheet name="Literature_MassShifts" sheetId="22" r:id="rId4"/>
+    <sheet name="Literature_MassShifts_truncated" sheetId="16" r:id="rId5"/>
+    <sheet name="Literature_MassShifts_Database" sheetId="25" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId7"/>
+    <sheet name="G3P" sheetId="23" r:id="rId8"/>
+    <sheet name="ADP" sheetId="24" r:id="rId9"/>
+    <sheet name="Dap" sheetId="27" r:id="rId10"/>
+    <sheet name="Results_hmdb" sheetId="20" r:id="rId11"/>
+    <sheet name="Fraction_Groups" sheetId="21" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6923" uniqueCount="2004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6279" uniqueCount="2000">
   <si>
     <t>#</t>
   </si>
@@ -6046,18 +6045,6 @@
   </si>
   <si>
     <t>a</t>
-  </si>
-  <si>
-    <t>Amino Acid</t>
-  </si>
-  <si>
-    <t>Glycolysis/sugar-phosphates</t>
-  </si>
-  <si>
-    <t>PPP</t>
-  </si>
-  <si>
-    <t>TCA</t>
   </si>
 </sst>
 </file>
@@ -7382,8 +7369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V162"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14010,50 +13997,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06A1883-067D-4CE8-827B-EDF5553D5120}">
-  <dimension ref="A2:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>426.02179999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>427.02510000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>448.00380000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>463.97829999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>545.98</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CEEAA3-5558-43DF-BD85-994F4016A0DF}">
   <dimension ref="A2:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -14094,7 +14041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D2C999-E07A-4065-9835-70E4A7CDB622}">
   <dimension ref="A1:J384"/>
   <sheetViews>
@@ -26402,7 +26349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944F4D74-2A0E-4E32-B619-EBD62A68137F}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -26519,2282 +26466,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F335CE5-98B2-4E70-9F20-A0A7ACB492F7}">
-  <dimension ref="A1:D161"/>
-  <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F111" sqref="F111"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="78.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>805</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>809</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>810</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>811</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="D131" s="8" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>760</v>
-      </c>
-      <c r="D141" s="6" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
-        <v>762</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="D142" s="6" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>769</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="D143" s="6" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
-        <v>779</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="3" t="s">
-        <v>784</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>785</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
-        <v>789</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>790</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>795</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>801</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
-        <v>819</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="D150" s="5" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>827</v>
-      </c>
-      <c r="D151" s="5" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>830</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>832</v>
-      </c>
-      <c r="D152" s="5" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>835</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="D153" s="5" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="3" t="s">
-        <v>846</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>847</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>853</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>855</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
-        <v>857</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>857</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="D157" s="8" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="3" t="s">
-        <v>861</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>862</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>864</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A159" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>868</v>
-      </c>
-      <c r="C159" s="13" t="s">
-        <v>881</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>871</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>873</v>
-      </c>
-      <c r="D160" s="5" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="4" t="s">
-        <v>875</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>876</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>879</v>
-      </c>
-      <c r="D161" s="16" t="s">
-        <v>817</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C48" r:id="rId1" xr:uid="{B4EDA1E0-EE82-4DF5-8CEB-E311D90CCDB3}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA16DE0-2AC9-4A7F-A268-C81B2D22E1D0}">
   <dimension ref="A1:D961"/>
   <sheetViews>
@@ -44186,7 +41857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F4A483-F8CB-4B37-A9F6-FB96B329E93A}">
   <dimension ref="A1:D161"/>
   <sheetViews>
@@ -46776,7 +44447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42568173-C28C-47DD-93D0-C54926A88FA6}">
   <dimension ref="A1:E78"/>
   <sheetViews>
@@ -48128,12 +45799,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BA6050-BD4A-4102-AD00-B4C433BE8607}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E22" sqref="E21:E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48633,7 +46304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA0183C-B974-4A73-9B9F-DA84F287E066}">
   <dimension ref="A1:C961"/>
   <sheetViews>
@@ -59224,7 +56895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA52E6C9-02BF-4D51-AF7C-C4A16DE627B5}">
   <dimension ref="A1:D161"/>
   <sheetViews>
@@ -61497,12 +59168,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C5B4EB-DC6A-4FD2-AA2B-3D30754AFBC4}">
   <dimension ref="A2:C5332"/>
   <sheetViews>
     <sheetView topLeftCell="A5314" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5332"/>
+      <selection activeCell="G5318" sqref="G5318:G5322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -88167,4 +85838,44 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06A1883-067D-4CE8-827B-EDF5553D5120}">
+  <dimension ref="A2:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>426.02179999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>427.02510000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>448.00380000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>463.97829999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>545.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/fig2/Supplements2.xlsx
+++ b/fig2/Supplements2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QTOF\MethodPaper\fig2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E8447D-D7D6-4650-BD5F-24C74004BC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96409DD-1C50-4CB3-8C33-4DB38AA66A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analytical_Standards" sheetId="1" r:id="rId1"/>
@@ -7391,8 +7391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V162"/>
   <sheetViews>
-    <sheetView topLeftCell="B50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26456,11 +26456,11 @@
         <v>3793</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:G4" si="0">SUM(F2:F3)</f>
+        <f>SUM(F2:F3)</f>
         <v>6495</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f>SUM(G2:G3)</f>
         <v>1073</v>
       </c>
       <c r="H4" t="s">
@@ -26491,8 +26491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA16DE0-2AC9-4A7F-A268-C81B2D22E1D0}">
   <dimension ref="A1:D961"/>
   <sheetViews>
-    <sheetView topLeftCell="A943" workbookViewId="0">
-      <selection sqref="A1:D961"/>
+    <sheetView topLeftCell="A928" workbookViewId="0">
+      <selection activeCell="D973" sqref="D973"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -45825,8 +45825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BA6050-BD4A-4102-AD00-B4C433BE8607}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/fig2/Supplements2.xlsx
+++ b/fig2/Supplements2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QTOF\MethodPaper\fig2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566E0A6F-5B45-4692-8C55-AEC0845255D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72C6638-A10C-4004-82E4-C121C631499E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analytical_Standards" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6295" uniqueCount="2000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6304" uniqueCount="2002">
   <si>
     <t>#</t>
   </si>
@@ -6048,6 +6048,12 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>Glyoxylate</t>
+  </si>
+  <si>
+    <t>Putrescine</t>
   </si>
 </sst>
 </file>
@@ -7372,8 +7378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V162"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J87" sqref="J87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7382,6 +7388,7 @@
     <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7454,6 +7461,9 @@
       <c r="K2" s="5" t="s">
         <v>812</v>
       </c>
+      <c r="N2" t="s">
+        <v>152</v>
+      </c>
       <c r="U2" s="2" t="s">
         <v>556</v>
       </c>
@@ -7495,6 +7505,9 @@
       <c r="K3" s="5" t="s">
         <v>812</v>
       </c>
+      <c r="N3" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="U3" s="3" t="s">
         <v>85</v>
       </c>
@@ -7536,6 +7549,9 @@
       <c r="K4" s="5" t="s">
         <v>812</v>
       </c>
+      <c r="N4" t="s">
+        <v>527</v>
+      </c>
       <c r="U4" s="3" t="s">
         <v>857</v>
       </c>
@@ -7577,6 +7593,9 @@
       <c r="K5" s="5" t="s">
         <v>812</v>
       </c>
+      <c r="N5" t="s">
+        <v>2000</v>
+      </c>
       <c r="U5" s="3" t="s">
         <v>440</v>
       </c>
@@ -7618,6 +7637,9 @@
       <c r="K6" s="5" t="s">
         <v>812</v>
       </c>
+      <c r="N6" t="s">
+        <v>2001</v>
+      </c>
       <c r="U6" s="3" t="s">
         <v>201</v>
       </c>
@@ -7659,6 +7681,9 @@
       <c r="K7" s="5" t="s">
         <v>812</v>
       </c>
+      <c r="N7" t="s">
+        <v>785</v>
+      </c>
       <c r="U7" s="3" t="s">
         <v>80</v>
       </c>
@@ -7700,6 +7725,9 @@
       <c r="K8" s="5" t="s">
         <v>812</v>
       </c>
+      <c r="N8" t="s">
+        <v>179</v>
+      </c>
       <c r="U8" s="3" t="s">
         <v>643</v>
       </c>
@@ -7741,6 +7769,9 @@
       <c r="K9" s="5" t="s">
         <v>812</v>
       </c>
+      <c r="N9" t="s">
+        <v>367</v>
+      </c>
       <c r="U9" s="3" t="s">
         <v>675</v>
       </c>
@@ -7781,6 +7812,9 @@
       </c>
       <c r="K10" s="5" t="s">
         <v>812</v>
+      </c>
+      <c r="N10" t="s">
+        <v>420</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>195</v>
@@ -14158,7 +14192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E521FFDB-54FC-4E5A-9FAE-3F88DF099870}">
   <dimension ref="A2:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -44604,8 +44638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42568173-C28C-47DD-93D0-C54926A88FA6}">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45726,8 +45760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BA6050-BD4A-4102-AD00-B4C433BE8607}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46320,8 +46354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA0183C-B974-4A73-9B9F-DA84F287E066}">
   <dimension ref="A1:C961"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A394" workbookViewId="0">
+      <selection activeCell="A413" sqref="A413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
